--- a/hms/target/classes/utils/User.xlsx
+++ b/hms/target/classes/utils/User.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15015" windowHeight="9060" tabRatio="296" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="9810" windowHeight="6285" tabRatio="296"/>
   </bookViews>
   <sheets>
     <sheet name="validusers" sheetId="1" r:id="rId1"/>
@@ -28,27 +28,27 @@
     <t>Passwords</t>
   </si>
   <si>
+    <t>hms_admin1@mailinator.com</t>
+  </si>
+  <si>
+    <t>Admin$123</t>
+  </si>
+  <si>
+    <t>Invalid UserName</t>
+  </si>
+  <si>
+    <t>Invalid Passwords</t>
+  </si>
+  <si>
     <t>testhms1@mailinator.com</t>
   </si>
   <si>
-    <t>Password$123</t>
-  </si>
-  <si>
-    <t>Invalid UserName</t>
-  </si>
-  <si>
-    <t>Invalid Passwords</t>
-  </si>
-  <si>
     <t>Admin$123456789</t>
   </si>
   <si>
     <t>tsethms2@@mailinator.com</t>
   </si>
   <si>
-    <t>Admin$123</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                          </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>testhms5@mailinator.com</t>
+    <t>testhmsPP5@mailinator.com</t>
   </si>
   <si>
     <t>Cardiologist</t>
@@ -232,7 +232,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>testhms6@mailinator.com</t>
+    <t>testhmsPP6@mailinator.com</t>
   </si>
   <si>
     <t>1024568255</t>
@@ -253,7 +253,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>testhms7@mailinator.com</t>
+    <t>testhmsPP7@mailinator.com</t>
   </si>
   <si>
     <t>1024568256</t>
@@ -274,7 +274,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>testhms8@mailinator.com</t>
+    <t>testhmsPP8@mailinator.com</t>
   </si>
   <si>
     <t>1024568257</t>
@@ -541,9 +541,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -591,7 +591,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,8 +634,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,32 +673,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,33 +703,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,27 +717,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -727,19 +727,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,19 +823,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,139 +901,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,21 +936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -962,11 +947,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,9 +986,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,8 +1013,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,7 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,130 +1041,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1516,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1544,7 +1544,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="testhms1@mailinator.com" tooltip="mailto:testhms1@mailinator.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="hms_admin1@mailinator.com" tooltip="mailto:hms_admin1@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1576,18 +1576,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1595,12 +1595,12 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1631,8 +1631,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1695,7 +1695,7 @@
   <sheetPr/>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2063,10 +2063,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" display="testhms5@mailinator.com"/>
-    <hyperlink ref="M3" r:id="rId1" display="testhms6@mailinator.com"/>
-    <hyperlink ref="M4" r:id="rId1" display="testhms7@mailinator.com"/>
-    <hyperlink ref="M5" r:id="rId1" display="testhms8@mailinator.com"/>
+    <hyperlink ref="M2" r:id="rId1" display="testhmsPP5@mailinator.com" tooltip="mailto:testhmsPP5@mailinator.com"/>
+    <hyperlink ref="M3" r:id="rId1" display="testhmsPP6@mailinator.com" tooltip="mailto:testhmsPP5@mailinator.com"/>
+    <hyperlink ref="M4" r:id="rId1" display="testhmsPP7@mailinator.com" tooltip="mailto:testhmsPP5@mailinator.com"/>
+    <hyperlink ref="M5" r:id="rId1" display="testhmsPP8@mailinator.com" tooltip="mailto:testhmsPP5@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2078,8 +2078,8 @@
   <sheetPr/>
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -2203,7 +2203,7 @@
         <v>93</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>58</v>
@@ -2516,7 +2516,7 @@
   <sheetPr/>
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A37"/>
     </sheetView>
   </sheetViews>
